--- a/biology/Médecine/Joseph_von_Mering/Joseph_von_Mering.xlsx
+++ b/biology/Médecine/Joseph_von_Mering/Joseph_von_Mering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josef, Baron von Mering (28 février 1849, à Cologne - 5 janvier 1908, à Halle-sur-Saale, province de Saxe)[1] est un médecin prussien.
-Travaillant à l'université de Strasbourg, Mering a été la première personne à découvrir en 1889, en collaboration avec Oskar Minkowski[2], de l’origine pancréatique du diabète et qu'une des fonctions pancréatiques est la production d'insuline, une hormone qui contrôle la glycémie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josef, Baron von Mering (28 février 1849, à Cologne - 5 janvier 1908, à Halle-sur-Saale, province de Saxe) est un médecin prussien.
+Travaillant à l'université de Strasbourg, Mering a été la première personne à découvrir en 1889, en collaboration avec Oskar Minkowski, de l’origine pancréatique du diabète et qu'une des fonctions pancréatiques est la production d'insuline, une hormone qui contrôle la glycémie.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Contributions scientifiques majeures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mering était curieux de connaître le pancréas, un organe en forme de virgule, situé entre l'estomac et l'intestin grêle. Dans un effort pour découvrir sa fonction, il a retiré l'organe d'un chien. Le chien a ensuite été remarqué en train d'uriner fréquemment sur le sol, bien qu'il s'agisse d'une maison grosse mereed. Mering s'est rendu compte qu'il s'agissait d'un symptôme de diabète et a testé l'urine, qui s'est avérée riche en sucre, confirmant ses soupçons.
-Josef von Mering a aidé à découvrir les barbituriques, une classe de médicaments sédatifs utilisés pour l'insomnie, l'épilepsie, l'anxiété et l'anesthésie. En 1903, il a publié des observations selon lesquelles le barbital (alors connu sous le nom d'acide diéthyl-barbiturique) a des propriétés sédatives chez l'homme. En 1904, il participe au lancement du barbital sous la marque Veronal. Veronal a été le premier sédatif barbiturique disponible dans le commerce dans tous les pays. Von Mering a collaboré avec le chimiste Emil Fischer, qui a également été impliqué dans la découverte du barbital[3].
+Josef von Mering a aidé à découvrir les barbituriques, une classe de médicaments sédatifs utilisés pour l'insomnie, l'épilepsie, l'anxiété et l'anesthésie. En 1903, il a publié des observations selon lesquelles le barbital (alors connu sous le nom d'acide diéthyl-barbiturique) a des propriétés sédatives chez l'homme. En 1904, il participe au lancement du barbital sous la marque Veronal. Veronal a été le premier sédatif barbiturique disponible dans le commerce dans tous les pays. Von Mering a collaboré avec le chimiste Emil Fischer, qui a également été impliqué dans la découverte du barbital.
 </t>
         </is>
       </c>
